--- a/data/case1/15/Plm1_2.xlsx
+++ b/data/case1/15/Plm1_2.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.42794182591569552</v>
+        <v>-0.35323633438204638</v>
       </c>
       <c r="B1" s="0">
-        <v>0.42644386623159392</v>
+        <v>0.35223358901745883</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27018774516375821</v>
+        <v>-0.24878865729366595</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26700034754329671</v>
+        <v>0.24611359983329706</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16404533665131282</v>
+        <v>-0.14316372137400535</v>
       </c>
       <c r="B3" s="0">
-        <v>0.16306521513380545</v>
+        <v>0.14242328528213832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15106521518111826</v>
+        <v>-0.1304232854531584</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15018423029636097</v>
+        <v>0.12977268068765646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14418423047051743</v>
+        <v>-0.12377268134299069</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14242012467818821</v>
+        <v>0.12248046740370544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.04143571467130247</v>
+        <v>-0.036208299208628336</v>
       </c>
       <c r="B6" s="0">
-        <v>0.041413118113347025</v>
+        <v>0.036190871051080098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.021413118325202873</v>
+        <v>-0.01619087184857726</v>
       </c>
       <c r="B7" s="0">
-        <v>0.021391483171692371</v>
+        <v>0.01617975086596779</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0013914833841255358</v>
+        <v>0.0038202483353737549</v>
       </c>
       <c r="B8" s="0">
-        <v>0.001382909064932214</v>
+        <v>-0.0038284065190063998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0046170907546327911</v>
+        <v>0.0098284058458801837</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0046305626397611377</v>
+        <v>-0.0098455626659692541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.010630562459553516</v>
+        <v>0.01584556199436804</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.010633809954704532</v>
+        <v>-0.015845076104902489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.041324966491952608</v>
+        <v>0.020345075446822847</v>
       </c>
       <c r="B11" s="0">
-        <v>0.041274730544582638</v>
+        <v>-0.020359873325944022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.04540163784630602</v>
+        <v>0.026359872654901473</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045154276564217888</v>
+        <v>-0.026470503831010017</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039154276748012862</v>
+        <v>0.032470503165727749</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039086779487051082</v>
+        <v>-0.032529170285529041</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027086779685486562</v>
+        <v>0.044529169569278437</v>
       </c>
       <c r="B14" s="0">
-        <v>0.02705394141406714</v>
+        <v>-0.04464634601628692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021053941599452841</v>
+        <v>-0.021050282787824059</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028075959235615</v>
+        <v>0.021026316492603669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028076145271463</v>
+        <v>-0.015026317153525426</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004706297178316</v>
+        <v>0.015003942578532659</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090047064840552693</v>
+        <v>-0.0090039432419644072</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998060275033</v>
+        <v>0.0089999993092053643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.14625612124127585</v>
+        <v>-0.093444932384979751</v>
       </c>
       <c r="B18" s="0">
-        <v>0.14593553608911591</v>
+        <v>0.093316889755154619</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.075713207951937811</v>
+        <v>-0.027096946005713107</v>
       </c>
       <c r="B19" s="0">
-        <v>0.074879178214270148</v>
+        <v>0.027013463572092888</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018014390995412022</v>
+        <v>-0.018013464231891874</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004401691146477</v>
+        <v>0.018004281252450127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090044018679606985</v>
+        <v>-0.0090042819130662366</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999998229819411</v>
+        <v>0.0089999993388110155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0939550110683669</v>
+        <v>-0.093949879127984914</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093639176414486158</v>
+        <v>0.093636506185005075</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084639176592520293</v>
+        <v>-0.084636506859569138</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127865952828174</v>
+        <v>0.084127125111391088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127866209267673</v>
+        <v>-0.042127126090987232</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999742058591</v>
+        <v>0.04199999901530127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094984410186377488</v>
+        <v>-0.08027216886679156</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094733488799178645</v>
+        <v>0.080101286350934942</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088733488979464425</v>
+        <v>-0.074101287024753049</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088411344653444246</v>
+        <v>0.073882796180200216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082411344834795397</v>
+        <v>-0.06788279685687737</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081314056122538059</v>
+        <v>0.06714081004769934</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075314056308034338</v>
+        <v>-0.061140810736477036</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074553590651713186</v>
+        <v>0.06063656738108758</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062553590853699603</v>
+        <v>-0.04863656813092021</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062175893948005267</v>
+        <v>0.048400718459735259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042175894169709238</v>
+        <v>-0.028400719284655818</v>
       </c>
       <c r="B30" s="0">
-        <v>0.04202126489579916</v>
+        <v>0.028343514333005082</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027021265108018611</v>
+        <v>-0.027019096451354585</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027001043212584008</v>
+        <v>0.027000584549396578</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060010434388901857</v>
+        <v>-0.0060005853883948745</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999998079245387</v>
+        <v>0.0059999992946737635</v>
       </c>
     </row>
   </sheetData>
